--- a/output/Lesotho_formatted.xlsx
+++ b/output/Lesotho_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">Additional source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential_duplication</t>
   </si>
   <si>
     <t xml:space="preserve">LSO</t>
@@ -620,22 +623,25 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -645,10 +651,10 @@
         <v>43704</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
         <v>0.017543</v>
@@ -696,22 +702,25 @@
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -721,10 +730,10 @@
         <v>43770</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" t="n">
         <v>200</v>
@@ -772,22 +781,25 @@
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
+      <c r="AC3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -797,10 +809,10 @@
         <v>43923</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -844,22 +856,25 @@
       <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4"/>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -869,10 +884,10 @@
         <v>43923</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
@@ -916,22 +931,25 @@
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
+      <c r="AC5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
@@ -941,10 +959,10 @@
         <v>43923</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
@@ -988,22 +1006,25 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
@@ -1013,10 +1034,10 @@
         <v>43923</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
@@ -1060,22 +1081,25 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7"/>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -1085,10 +1109,10 @@
         <v>43923</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1132,22 +1156,25 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8"/>
+      <c r="AC8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1157,10 +1184,10 @@
         <v>43923</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9"/>
       <c r="L9"/>
@@ -1204,22 +1231,25 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9"/>
+      <c r="AC9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1229,10 +1259,10 @@
         <v>44076</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="n">
         <v>0.4</v>
@@ -1280,22 +1310,25 @@
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10"/>
+      <c r="AC10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -1305,10 +1338,10 @@
         <v>43923</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
@@ -1352,22 +1385,25 @@
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12"/>
       <c r="G12" s="1" t="n">
@@ -1377,10 +1413,10 @@
         <v>43956</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
         <v>0.4</v>
@@ -1428,22 +1464,25 @@
       <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12"/>
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13"/>
       <c r="G13" s="1" t="n">
@@ -1453,10 +1492,10 @@
         <v>44093</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1504,22 +1543,25 @@
       <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13"/>
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="1" t="n">
@@ -1529,10 +1571,10 @@
         <v>44093</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14" t="n">
         <v>3.9</v>
@@ -1580,22 +1622,25 @@
       <c r="Z14"/>
       <c r="AA14"/>
       <c r="AB14"/>
+      <c r="AC14" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="1" t="n">
@@ -1605,10 +1650,10 @@
         <v>44093</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" t="n">
         <v>0.5</v>
@@ -1656,22 +1701,25 @@
       <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15"/>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16"/>
       <c r="G16" s="1" t="n">
@@ -1681,10 +1729,10 @@
         <v>44145</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1732,6 +1780,9 @@
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output/Lesotho_formatted.xlsx
+++ b/output/Lesotho_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -62,24 +62,12 @@
     <t xml:space="preserve">Grant Portion</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jan-20</t>
   </si>
   <si>
     <t xml:space="preserve">Mar-20</t>
   </si>
   <si>
-    <t xml:space="preserve">Apr-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aug-20</t>
   </si>
   <si>
@@ -101,6 +89,9 @@
     <t xml:space="preserve">potential_duplication</t>
   </si>
   <si>
+    <t xml:space="preserve">Flow ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSO</t>
   </si>
   <si>
@@ -113,79 +104,49 @@
     <t xml:space="preserve">Sub-Saharan Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany, Government of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global multi-sectoral humanitarian assistance to reduce the negative impact of sudden disasters and crises, as well as existing long-lasting and forgotten crises on the affected population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA-S09 321.50 ALL 14/19</t>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support to Drought affected populations in the Southern districts of Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-WFP-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response to the health effects of drought in Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-WHO-058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAO Integrated Emergency Support to Affected Communities caused by persistent Drought conditions in Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-FAO-038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventing and Responding to GBV in Drought Affected Communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOH27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drought affected population have access to lifesaving nutrition, safe water and hygiene services (part of 19-RR-CEF-119)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-CEF-119</t>
   </si>
   <si>
     <t xml:space="preserve">Japan, Government of</t>
   </si>
   <si>
-    <t xml:space="preserve">Food assistance</t>
+    <t xml:space="preserve">Counter Trafficking in Persons and Smuggling of Migrants through Victims of Trafficking  (VoT) Crisis Shelter Rehabilitation and Building Immigration Department's Capacities in Lesotho</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support to Drought affected populations in the Southern districts of Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-WFP-075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response to the health effects of drought in Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-WHO-058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAO Integrated Emergency Support to Affected Communities caused by persistent Drought conditions in Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-FAO-038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preventing and Responding to GBV in Drought Affected Communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UOH27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought affected population have access to lifesaving nutrition, safe water and hygiene services (part of 19-RR-CEF-119)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-CEF-119</t>
-  </si>
-  <si>
     <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-,Action A: Man made crisis and natural disasters,Action C: DIPECHO - LESOTHO (ECHO/-SF/BUD/2020/91000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/-SF/BUD/2020/91000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Trafficking in Persons and Smuggling of Migrants through Victims of Trafficking  (VoT) Crisis Shelter Rehabilitation and Building Immigration Department's Capacities in Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strengthening national and community capacities for effective disaster preparedness and response in Lesotho (ECHO/-SF/BUD/2020/91008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/-SF/BUD/2020/91008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To provide Humanitarian Food Assistance and emergency nutrition assistance to people affected by the severe food insecurity crisis and COVID-19 preparedness and response,Action A: Man made crisis and natural disasters - LESOTHO (ECHO/-SF/EDF/2020/01000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECHO/-SF/EDF/2020/01000</t>
   </si>
   <si>
     <t xml:space="preserve">Drought and COVID-19 Pandemic in Lesotho: Agriculture, Food Security and Protection Support to Vulnerable Communities (part of ECHO/-SF/EDF/2020/01012)</t>
@@ -617,63 +578,50 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
-        <v>43644</v>
+        <v>43830</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>43704</v>
+        <v>43923</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.017543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.899</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2" t="n">
-        <v>0.019514</v>
+        <v>0.97</v>
       </c>
       <c r="N2"/>
       <c r="O2" t="n">
-        <v>0.019514</v>
+        <v>0.97</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.019514</v>
+        <v>0.97</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -685,77 +633,64 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.019514</v>
-      </c>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2" t="b">
-        <v>0</v>
+        <v>0.97</v>
+      </c>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>203501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>43770</v>
+        <v>43923</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="n">
-        <v>200</v>
-      </c>
-      <c r="L3" t="n">
-        <v>108.85</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
       <c r="M3" t="n">
-        <v>1.837391</v>
+        <v>0.150002</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="n">
-        <v>1.837391</v>
+        <v>0.150002</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.150002</v>
       </c>
       <c r="R3" t="n">
-        <v>1.837391</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -764,42 +699,33 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.837391</v>
-      </c>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3" t="b">
-        <v>0</v>
+        <v>0.150002</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>203502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
@@ -809,72 +735,63 @@
         <v>43923</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>0.97</v>
+        <v>0.879992</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.97</v>
+        <v>0.879992</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.879992</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4" t="b">
-        <v>0</v>
+        <v>0.879992</v>
+      </c>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>203499</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
@@ -884,244 +801,217 @@
         <v>43923</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.150002</v>
+        <v>0.300001</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.150002</v>
+        <v>0.300001</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.300001</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.150002</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.150002</v>
-      </c>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5" t="b">
-        <v>0</v>
+        <v>0.300001</v>
+      </c>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>203500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
-        <v>43830</v>
+        <v>43833</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.879992</v>
+        <v>0.195001</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="n">
-        <v>0.879992</v>
+        <v>0.195001</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.195001</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.879992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.879992</v>
-      </c>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6" t="b">
-        <v>0</v>
+        <v>0.195001</v>
+      </c>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>203590</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
-        <v>43830</v>
+        <v>43833</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.300001</v>
+        <v>0.555001</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.300001</v>
+        <v>0.555001</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.555001</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.300001</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.300001</v>
-      </c>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7" t="b">
-        <v>0</v>
+        <v>0.555001</v>
+      </c>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>203591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
-        <v>43833</v>
+        <v>43909</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.195001</v>
+        <v>0.284027</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="n">
-        <v>0.195001</v>
+        <v>0.284027</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1130,73 +1020,68 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.284027</v>
       </c>
       <c r="S8" t="n">
-        <v>0.195001</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.195001</v>
-      </c>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8" t="b">
-        <v>0</v>
+        <v>0.284027</v>
+      </c>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>207539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
-        <v>43833</v>
+        <v>44061</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>43923</v>
+        <v>44093</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9"/>
-      <c r="L9"/>
+        <v>46</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.849</v>
+      </c>
       <c r="M9" t="n">
-        <v>0.555001</v>
+        <v>4.59364</v>
       </c>
       <c r="N9"/>
       <c r="O9" t="n">
-        <v>0.555001</v>
+        <v>4.59364</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1208,74 +1093,65 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.555001</v>
+        <v>4.59364</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.555001</v>
-      </c>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9" t="b">
-        <v>0</v>
+        <v>4.59364</v>
+      </c>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>218721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
-        <v>43843</v>
+        <v>44061</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>44076</v>
+        <v>44093</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0.896</v>
+        <v>0.849</v>
       </c>
       <c r="M10" t="n">
-        <v>0.446429</v>
+        <v>0.588928</v>
       </c>
       <c r="N10"/>
       <c r="O10" t="n">
-        <v>0.446429</v>
+        <v>0.588928</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1287,70 +1163,65 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.446429</v>
+        <v>0.588928</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.446429</v>
-      </c>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10" t="b">
-        <v>0</v>
+        <v>0.588928</v>
+      </c>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>218722</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
-        <v>43909</v>
+        <v>44097</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>43923</v>
+        <v>44145</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11"/>
+        <v>49</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.773</v>
+      </c>
       <c r="M11" t="n">
-        <v>0.284027</v>
+        <v>5.174644</v>
       </c>
       <c r="N11"/>
       <c r="O11" t="n">
-        <v>0.284027</v>
+        <v>5.174644</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1365,423 +1236,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.284027</v>
+        <v>5.174644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.284027</v>
-      </c>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="1" t="n">
-        <v>43951</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.434311</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12" t="n">
-        <v>0.434311</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.434311</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.434311</v>
-      </c>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>44093</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13"/>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" s="1" t="n">
-        <v>44061</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>44093</v>
-      </c>
-      <c r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4.59364</v>
-      </c>
-      <c r="N14"/>
-      <c r="O14" t="n">
-        <v>4.59364</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.59364</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4.59364</v>
-      </c>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" s="1" t="n">
-        <v>44061</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>44093</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.588928</v>
-      </c>
-      <c r="N15"/>
-      <c r="O15" t="n">
-        <v>0.588928</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.588928</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.588928</v>
-      </c>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="1" t="n">
-        <v>44097</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>44145</v>
-      </c>
-      <c r="I16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="M16" t="n">
         <v>5.174644</v>
       </c>
-      <c r="N16"/>
-      <c r="O16" t="n">
-        <v>5.174644</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>5.174644</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5.174644</v>
-      </c>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16" t="b">
-        <v>0</v>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>222612</v>
       </c>
     </row>
   </sheetData>

--- a/output/Lesotho_formatted.xlsx
+++ b/output/Lesotho_formatted.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Country Code</t>
   </si>
@@ -92,6 +92,12 @@
     <t xml:space="preserve">Flow ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Recipient Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipient Organisation Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSO</t>
   </si>
   <si>
@@ -113,28 +119,46 @@
     <t xml:space="preserve">19-RR-WFP-075</t>
   </si>
   <si>
+    <t xml:space="preserve">World Food Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN agency</t>
+  </si>
+  <si>
     <t xml:space="preserve">Response to the health effects of drought in Lesotho</t>
   </si>
   <si>
     <t xml:space="preserve">19-RR-WHO-058</t>
   </si>
   <si>
+    <t xml:space="preserve">World Health Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drought affected population have access to lifesaving nutrition, safe water and hygiene services (part of 19-RR-CEF-119)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-RR-CEF-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Children's Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventing and Responding to GBV in Drought Affected Communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOH27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Nations Population Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAO Integrated Emergency Support to Affected Communities caused by persistent Drought conditions in Lesotho</t>
   </si>
   <si>
     <t xml:space="preserve">19-RR-FAO-038</t>
   </si>
   <si>
-    <t xml:space="preserve">Preventing and Responding to GBV in Drought Affected Communities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UOH27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought affected population have access to lifesaving nutrition, safe water and hygiene services (part of 19-RR-CEF-119)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-RR-CEF-119</t>
+    <t xml:space="preserve">Food &amp; Agriculture Organization of the United Nations</t>
   </si>
   <si>
     <t xml:space="preserve">Japan, Government of</t>
@@ -144,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">International Organization for Migration</t>
   </si>
   <si>
     <t xml:space="preserve">European Commission's Humanitarian Aid and Civil Protection Department</t>
@@ -578,22 +605,28 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="1" t="n">
@@ -603,10 +636,10 @@
         <v>43923</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
@@ -644,22 +677,28 @@
       <c r="Z2" t="n">
         <v>203501</v>
       </c>
+      <c r="AA2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="1" t="n">
@@ -669,10 +708,10 @@
         <v>43923</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -710,50 +749,56 @@
       <c r="Z3" t="n">
         <v>203502</v>
       </c>
+      <c r="AA3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="1" t="n">
-        <v>43830</v>
+        <v>43833</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>0.879992</v>
+        <v>0.195001</v>
       </c>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.879992</v>
+        <v>0.195001</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.879992</v>
+        <v>0.195001</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -765,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.879992</v>
+        <v>0.195001</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -774,52 +819,58 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>203499</v>
+        <v>203590</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="1" t="n">
-        <v>43830</v>
+        <v>43833</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.300001</v>
+        <v>0.555001</v>
       </c>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.300001</v>
+        <v>0.555001</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.300001</v>
+        <v>0.555001</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -831,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.300001</v>
+        <v>0.555001</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -840,52 +891,58 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>203500</v>
+        <v>203591</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6"/>
       <c r="G6" s="1" t="n">
-        <v>43833</v>
+        <v>43830</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.195001</v>
+        <v>0.300001</v>
       </c>
       <c r="N6"/>
       <c r="O6" t="n">
-        <v>0.195001</v>
+        <v>0.300001</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.195001</v>
+        <v>0.300001</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -897,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.195001</v>
+        <v>0.300001</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -906,52 +963,58 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>203590</v>
+        <v>203500</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="1" t="n">
-        <v>43833</v>
+        <v>43830</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>43923</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.555001</v>
+        <v>0.879992</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
-        <v>0.555001</v>
+        <v>0.879992</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.555001</v>
+        <v>0.879992</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -963,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.555001</v>
+        <v>0.879992</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -972,24 +1035,30 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>203591</v>
+        <v>203499</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1" t="n">
@@ -999,10 +1068,10 @@
         <v>43923</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K8"/>
       <c r="L8"/>
@@ -1040,22 +1109,28 @@
       <c r="Z8" t="n">
         <v>207539</v>
       </c>
+      <c r="AA8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="1" t="n">
@@ -1065,10 +1140,10 @@
         <v>44093</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
         <v>3.9</v>
@@ -1110,22 +1185,28 @@
       <c r="Z9" t="n">
         <v>218721</v>
       </c>
+      <c r="AA9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="1" t="n">
@@ -1135,10 +1216,10 @@
         <v>44093</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
         <v>0.5</v>
@@ -1180,22 +1261,28 @@
       <c r="Z10" t="n">
         <v>218722</v>
       </c>
+      <c r="AA10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="n">
@@ -1205,10 +1292,10 @@
         <v>44145</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -1249,6 +1336,12 @@
       </c>
       <c r="Z11" t="n">
         <v>222612</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
